--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -546,7 +546,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:I20"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
